--- a/incrediblejournEYBEEwithyou/guestlist - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/guestlist - 4.11.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="11640" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="11640" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="undangan eyik" sheetId="4" r:id="rId2"/>
-    <sheet name="undangan gereja" sheetId="3" r:id="rId3"/>
-    <sheet name="Cetak Undangan" sheetId="5" r:id="rId4"/>
+    <sheet name="undangan bee" sheetId="6" r:id="rId2"/>
+    <sheet name="undangan eyik" sheetId="4" r:id="rId3"/>
+    <sheet name="undangan gereja" sheetId="3" r:id="rId4"/>
+    <sheet name="Cetak Undangan" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="361">
   <si>
     <t>bunte</t>
   </si>
@@ -1079,16 +1080,37 @@
   </si>
   <si>
     <t>keluarga</t>
+  </si>
+  <si>
+    <t>undangan DICETAK</t>
+  </si>
+  <si>
+    <t>KETERANGAN :</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>perkiraan</t>
+  </si>
+  <si>
+    <t>INTI</t>
+  </si>
+  <si>
+    <t>DUDUK</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,6 +1122,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1131,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1148,6 +1178,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,19 +1492,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1474,7 +1514,7 @@
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1497,11 +1537,11 @@
         <v>191</v>
       </c>
       <c r="H1">
-        <f>SUM(D22:D292)</f>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <f>SUM(D22:D241)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>192</v>
       </c>
@@ -1512,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>193</v>
       </c>
@@ -1526,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>194</v>
       </c>
@@ -1540,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>195</v>
       </c>
@@ -1554,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>196</v>
       </c>
@@ -1568,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>197</v>
       </c>
@@ -1610,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1627,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -1644,7 +1684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1661,7 +1701,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1678,7 +1718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1695,7 +1735,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1709,7 +1749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -1723,7 +1763,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -1737,7 +1777,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -1751,7 +1791,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -1765,7 +1805,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -1779,7 +1819,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -1793,7 +1833,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -1810,7 +1850,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>
@@ -1827,7 +1867,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -1844,7 +1884,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>16</v>
       </c>
@@ -1861,7 +1901,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>17</v>
       </c>
@@ -1878,7 +1918,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>18</v>
       </c>
@@ -1895,7 +1935,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -1912,7 +1952,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>20</v>
       </c>
@@ -1929,7 +1969,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>21</v>
       </c>
@@ -1946,7 +1986,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>22</v>
       </c>
@@ -1963,7 +2003,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>23</v>
       </c>
@@ -1980,7 +2020,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>24</v>
       </c>
@@ -1994,7 +2034,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>25</v>
       </c>
@@ -2011,7 +2051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>26</v>
       </c>
@@ -2028,7 +2068,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>27</v>
       </c>
@@ -2042,7 +2082,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>28</v>
       </c>
@@ -2059,7 +2099,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>29</v>
       </c>
@@ -2076,7 +2116,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>30</v>
       </c>
@@ -2093,7 +2133,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>31</v>
       </c>
@@ -2110,7 +2150,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>32</v>
       </c>
@@ -2127,7 +2167,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>33</v>
       </c>
@@ -2141,7 +2181,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>34</v>
       </c>
@@ -2155,7 +2195,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35</v>
       </c>
@@ -2172,7 +2212,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>36</v>
       </c>
@@ -2189,7 +2229,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>37</v>
       </c>
@@ -2203,7 +2243,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>38</v>
       </c>
@@ -2220,7 +2260,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>39</v>
       </c>
@@ -2237,7 +2277,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40</v>
       </c>
@@ -2251,7 +2291,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41</v>
       </c>
@@ -2265,7 +2305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42</v>
       </c>
@@ -2279,7 +2319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43</v>
       </c>
@@ -2296,7 +2336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44</v>
       </c>
@@ -2313,7 +2353,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45</v>
       </c>
@@ -2330,7 +2370,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>46</v>
       </c>
@@ -2344,7 +2384,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>47</v>
       </c>
@@ -2358,7 +2398,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>48</v>
       </c>
@@ -2372,7 +2412,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>49</v>
       </c>
@@ -2389,7 +2429,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>50</v>
       </c>
@@ -2403,7 +2443,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>51</v>
       </c>
@@ -2420,7 +2460,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>52</v>
       </c>
@@ -2437,7 +2477,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>53</v>
       </c>
@@ -2451,7 +2491,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>54</v>
       </c>
@@ -2465,7 +2505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>55</v>
       </c>
@@ -2479,7 +2519,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>56</v>
       </c>
@@ -2493,7 +2533,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>57</v>
       </c>
@@ -2507,7 +2547,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>58</v>
       </c>
@@ -2521,7 +2561,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>59</v>
       </c>
@@ -2538,7 +2578,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>60</v>
       </c>
@@ -2552,7 +2592,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>61</v>
       </c>
@@ -2566,7 +2606,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>62</v>
       </c>
@@ -2580,7 +2620,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>63</v>
       </c>
@@ -2594,7 +2634,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>64</v>
       </c>
@@ -2608,7 +2648,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>65</v>
       </c>
@@ -2622,7 +2662,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>66</v>
       </c>
@@ -2636,7 +2676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>67</v>
       </c>
@@ -2650,7 +2690,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>68</v>
       </c>
@@ -2664,7 +2704,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>69</v>
       </c>
@@ -2678,7 +2718,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>70</v>
       </c>
@@ -2692,7 +2732,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>71</v>
       </c>
@@ -2706,7 +2746,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>72</v>
       </c>
@@ -2720,7 +2760,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>73</v>
       </c>
@@ -2734,7 +2774,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>74</v>
       </c>
@@ -2748,7 +2788,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>75</v>
       </c>
@@ -2762,7 +2802,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>76</v>
       </c>
@@ -2776,7 +2816,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>77</v>
       </c>
@@ -2790,7 +2830,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>78</v>
       </c>
@@ -2804,7 +2844,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>79</v>
       </c>
@@ -2818,7 +2858,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>80</v>
       </c>
@@ -2832,7 +2872,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>81</v>
       </c>
@@ -2846,7 +2886,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>82</v>
       </c>
@@ -2860,7 +2900,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>83</v>
       </c>
@@ -2874,7 +2914,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>84</v>
       </c>
@@ -2888,7 +2928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>85</v>
       </c>
@@ -2902,7 +2942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>86</v>
       </c>
@@ -2916,7 +2956,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>87</v>
       </c>
@@ -2930,7 +2970,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>88</v>
       </c>
@@ -2944,7 +2984,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>89</v>
       </c>
@@ -2958,7 +2998,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>90</v>
       </c>
@@ -2973,7 +3013,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>91</v>
       </c>
@@ -2988,7 +3028,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>92</v>
       </c>
@@ -3003,7 +3043,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>93</v>
       </c>
@@ -3018,7 +3058,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>94</v>
       </c>
@@ -3033,7 +3073,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>95</v>
       </c>
@@ -3048,7 +3088,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>96</v>
       </c>
@@ -3063,7 +3103,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>97</v>
       </c>
@@ -3078,7 +3118,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>98</v>
       </c>
@@ -3093,7 +3133,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>99</v>
       </c>
@@ -3108,7 +3148,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>100</v>
       </c>
@@ -3123,7 +3163,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>101</v>
       </c>
@@ -3138,7 +3178,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>102</v>
       </c>
@@ -3153,7 +3193,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>103</v>
       </c>
@@ -3168,7 +3208,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>104</v>
       </c>
@@ -3183,7 +3223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>105</v>
       </c>
@@ -3198,7 +3238,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>106</v>
       </c>
@@ -3213,7 +3253,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>107</v>
       </c>
@@ -3228,7 +3268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>108</v>
       </c>
@@ -3243,7 +3283,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>109</v>
       </c>
@@ -3258,7 +3298,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>110</v>
       </c>
@@ -3273,7 +3313,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>111</v>
       </c>
@@ -3288,7 +3328,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>112</v>
       </c>
@@ -3303,7 +3343,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>113</v>
       </c>
@@ -3318,7 +3358,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>114</v>
       </c>
@@ -3333,7 +3373,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>115</v>
       </c>
@@ -3348,7 +3388,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>116</v>
       </c>
@@ -3363,7 +3403,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>117</v>
       </c>
@@ -3378,7 +3418,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>118</v>
       </c>
@@ -3393,7 +3433,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>119</v>
       </c>
@@ -3408,7 +3448,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>120</v>
       </c>
@@ -3423,7 +3463,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>121</v>
       </c>
@@ -3438,7 +3478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>122</v>
       </c>
@@ -3453,7 +3493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>123</v>
       </c>
@@ -3468,7 +3508,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>124</v>
       </c>
@@ -3483,7 +3523,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>125</v>
       </c>
@@ -3498,7 +3538,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>126</v>
       </c>
@@ -3513,7 +3553,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>127</v>
       </c>
@@ -3528,7 +3568,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>128</v>
       </c>
@@ -3545,7 +3585,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>129</v>
       </c>
@@ -3560,7 +3600,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>130</v>
       </c>
@@ -3575,7 +3615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>131</v>
       </c>
@@ -3590,7 +3630,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>132</v>
       </c>
@@ -3605,7 +3645,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>133</v>
       </c>
@@ -3620,7 +3660,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>134</v>
       </c>
@@ -3635,7 +3675,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>135</v>
       </c>
@@ -3650,7 +3690,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>136</v>
       </c>
@@ -3665,7 +3705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>137</v>
       </c>
@@ -3680,7 +3720,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>138</v>
       </c>
@@ -3695,7 +3735,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>139</v>
       </c>
@@ -3710,7 +3750,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>140</v>
       </c>
@@ -3725,7 +3765,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>141</v>
       </c>
@@ -3740,7 +3780,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>142</v>
       </c>
@@ -3754,7 +3794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>143</v>
       </c>
@@ -3768,7 +3808,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>144</v>
       </c>
@@ -3782,7 +3822,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>145</v>
       </c>
@@ -3796,7 +3836,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>146</v>
       </c>
@@ -3810,7 +3850,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>147</v>
       </c>
@@ -3825,7 +3865,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>148</v>
       </c>
@@ -3840,7 +3880,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>149</v>
       </c>
@@ -3855,7 +3895,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>150</v>
       </c>
@@ -3870,7 +3910,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>151</v>
       </c>
@@ -3885,7 +3925,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>152</v>
       </c>
@@ -3900,7 +3940,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>153</v>
       </c>
@@ -3915,7 +3955,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>154</v>
       </c>
@@ -3930,7 +3970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>155</v>
       </c>
@@ -3945,7 +3985,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>156</v>
       </c>
@@ -3960,7 +4000,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>157</v>
       </c>
@@ -3975,7 +4015,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>158</v>
       </c>
@@ -3989,7 +4029,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>159</v>
       </c>
@@ -4003,7 +4043,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>160</v>
       </c>
@@ -4017,7 +4057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>161</v>
       </c>
@@ -4031,7 +4071,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>162</v>
       </c>
@@ -4046,7 +4086,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>163</v>
       </c>
@@ -4061,7 +4101,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>164</v>
       </c>
@@ -4076,7 +4116,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>165</v>
       </c>
@@ -4091,7 +4131,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>166</v>
       </c>
@@ -4106,7 +4146,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>167</v>
       </c>
@@ -4121,7 +4161,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>168</v>
       </c>
@@ -4136,7 +4176,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>169</v>
       </c>
@@ -4151,7 +4191,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>170</v>
       </c>
@@ -4166,7 +4206,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>171</v>
       </c>
@@ -4181,7 +4221,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>172</v>
       </c>
@@ -4196,7 +4236,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>173</v>
       </c>
@@ -4210,7 +4250,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>174</v>
       </c>
@@ -4225,7 +4265,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>175</v>
       </c>
@@ -4240,7 +4280,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>176</v>
       </c>
@@ -4255,7 +4295,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>177</v>
       </c>
@@ -4270,7 +4310,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>178</v>
       </c>
@@ -4285,7 +4325,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>179</v>
       </c>
@@ -4299,7 +4339,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>180</v>
       </c>
@@ -4314,7 +4354,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>181</v>
       </c>
@@ -4329,7 +4369,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>182</v>
       </c>
@@ -4344,7 +4384,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>183</v>
       </c>
@@ -4359,7 +4399,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>184</v>
       </c>
@@ -4374,7 +4414,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>185</v>
       </c>
@@ -4389,7 +4429,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>186</v>
       </c>
@@ -4404,7 +4444,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>187</v>
       </c>
@@ -4419,7 +4459,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>188</v>
       </c>
@@ -4433,7 +4473,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>189</v>
       </c>
@@ -4447,7 +4487,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>190</v>
       </c>
@@ -4462,7 +4502,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>191</v>
       </c>
@@ -4477,7 +4517,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>192</v>
       </c>
@@ -4492,7 +4532,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>193</v>
       </c>
@@ -4507,7 +4547,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>194</v>
       </c>
@@ -4522,7 +4562,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>195</v>
       </c>
@@ -4537,7 +4577,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>196</v>
       </c>
@@ -4552,7 +4592,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>197</v>
       </c>
@@ -4567,7 +4607,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>198</v>
       </c>
@@ -4582,7 +4622,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>199</v>
       </c>
@@ -4597,7 +4637,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>200</v>
       </c>
@@ -4612,7 +4652,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>201</v>
       </c>
@@ -4627,7 +4667,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>202</v>
       </c>
@@ -4642,7 +4682,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>203</v>
       </c>
@@ -4657,7 +4697,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>204</v>
       </c>
@@ -4672,7 +4712,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>205</v>
       </c>
@@ -4687,7 +4727,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>206</v>
       </c>
@@ -4702,7 +4742,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>207</v>
       </c>
@@ -4717,7 +4757,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>208</v>
       </c>
@@ -4732,7 +4772,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>209</v>
       </c>
@@ -4747,7 +4787,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>210</v>
       </c>
@@ -4762,7 +4802,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>211</v>
       </c>
@@ -4777,7 +4817,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>212</v>
       </c>
@@ -4792,7 +4832,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>213</v>
       </c>
@@ -4807,7 +4847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>214</v>
       </c>
@@ -4822,7 +4862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>215</v>
       </c>
@@ -4837,7 +4877,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>216</v>
       </c>
@@ -4852,7 +4892,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>217</v>
       </c>
@@ -4867,7 +4907,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>218</v>
       </c>
@@ -4882,7 +4922,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>219</v>
       </c>
@@ -4897,7 +4937,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>220</v>
       </c>
@@ -4912,7 +4952,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>221</v>
       </c>
@@ -4927,7 +4967,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>222</v>
       </c>
@@ -4942,7 +4982,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>223</v>
       </c>
@@ -4957,7 +4997,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>224</v>
       </c>
@@ -4972,7 +5012,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>225</v>
       </c>
@@ -4987,7 +5027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>226</v>
       </c>
@@ -5002,7 +5042,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>227</v>
       </c>
@@ -5017,7 +5057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>228</v>
       </c>
@@ -5032,7 +5072,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>229</v>
       </c>
@@ -5047,7 +5087,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>230</v>
       </c>
@@ -5062,7 +5102,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>231</v>
       </c>
@@ -5077,7 +5117,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>232</v>
       </c>
@@ -5092,7 +5132,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>233</v>
       </c>
@@ -5107,7 +5147,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>234</v>
       </c>
@@ -5122,7 +5162,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>235</v>
       </c>
@@ -5137,7 +5177,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>236</v>
       </c>
@@ -5152,7 +5192,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>237</v>
       </c>
@@ -5169,7 +5209,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>238</v>
       </c>
@@ -5186,7 +5226,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>239</v>
       </c>
@@ -5203,7 +5243,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>240</v>
       </c>
@@ -5220,7 +5260,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>241</v>
       </c>
@@ -5234,7 +5274,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>242</v>
       </c>
@@ -5248,7 +5288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>243</v>
       </c>
@@ -5262,7 +5302,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>244</v>
       </c>
@@ -5276,7 +5316,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>245</v>
       </c>
@@ -5290,7 +5330,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>246</v>
       </c>
@@ -5307,7 +5347,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>247</v>
       </c>
@@ -5324,7 +5364,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>248</v>
       </c>
@@ -5341,7 +5381,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>249</v>
       </c>
@@ -5355,7 +5395,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>250</v>
       </c>
@@ -5369,7 +5409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>251</v>
       </c>
@@ -5386,7 +5426,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>252</v>
       </c>
@@ -5400,7 +5440,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>253</v>
       </c>
@@ -5414,7 +5454,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>254</v>
       </c>
@@ -5428,7 +5468,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>255</v>
       </c>
@@ -5445,7 +5485,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>256</v>
       </c>
@@ -5462,7 +5502,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>257</v>
       </c>
@@ -5479,7 +5519,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>258</v>
       </c>
@@ -5496,7 +5536,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>259</v>
       </c>
@@ -5510,7 +5550,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>260</v>
       </c>
@@ -5527,7 +5567,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>261</v>
       </c>
@@ -5544,7 +5584,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>262</v>
       </c>
@@ -5558,7 +5598,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>263</v>
       </c>
@@ -5572,7 +5612,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>264</v>
       </c>
@@ -5586,7 +5626,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>265</v>
       </c>
@@ -5597,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>266</v>
       </c>
@@ -5611,172 +5651,172 @@
         <v>270</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>271</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>273</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>276</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>279</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>282</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>290</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>292</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>294</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>297</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>300</v>
       </c>
@@ -5788,14 +5828,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -5803,7 +7461,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>352</v>
       </c>
@@ -5814,22 +7472,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5844,7 +7502,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5859,7 +7517,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5874,22 +7532,22 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5904,7 +7562,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5919,52 +7577,52 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5979,22 +7637,22 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6009,7 +7667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6024,22 +7682,22 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6054,52 +7712,52 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19">
+      <c r="C19" s="8"/>
+      <c r="D19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6114,22 +7772,22 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6144,7 +7802,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6159,22 +7817,22 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="9">
         <v>4</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6189,7 +7847,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6204,42 +7862,42 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28">
+      <c r="C28" s="8"/>
+      <c r="D28" s="9">
         <v>4</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30">
@@ -6249,102 +7907,95 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6358,7 +8009,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6372,7 +8023,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6386,7 +8037,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6400,7 +8051,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6414,7 +8065,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6428,7 +8079,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6442,7 +8093,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6456,7 +8107,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6470,7 +8121,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6484,7 +8135,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6498,7 +8149,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6512,7 +8163,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6526,7 +8177,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6540,7 +8191,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6554,7 +8205,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6568,7 +8219,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6582,7 +8233,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6596,7 +8247,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6612,19 +8263,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -6632,7 +8283,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -6659,7 +8310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6671,7 +8322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6687,7 +8338,7 @@
         <v>2680000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6699,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6711,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6723,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6737,7 +8388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6751,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6765,7 +8416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6777,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6789,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6803,7 +8454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6815,7 +8466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6827,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6839,7 +8490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6853,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6867,7 +8518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6881,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6895,7 +8546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6907,7 +8558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6921,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6935,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6947,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6959,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6971,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6983,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6995,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7006,7 +8657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7017,7 +8668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7028,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7039,32 +8690,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>192</v>
       </c>
@@ -7073,7 +8724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>193</v>
       </c>
@@ -7082,7 +8733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>194</v>
       </c>
@@ -7091,7 +8742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>195</v>
       </c>
@@ -7100,7 +8751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>196</v>
       </c>
@@ -7109,7 +8760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>5</v>
       </c>
@@ -7118,7 +8769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>6</v>
       </c>
@@ -7127,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>197</v>
       </c>
@@ -7136,7 +8787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>198</v>
       </c>
@@ -7145,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -7156,7 +8807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1</v>
       </c>
@@ -7167,7 +8818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>2</v>
       </c>
@@ -7178,7 +8829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -7189,7 +8840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>217</v>
       </c>
@@ -7200,7 +8851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>218</v>
       </c>
@@ -7211,7 +8862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>4</v>
       </c>
@@ -7222,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>123</v>
       </c>
@@ -7233,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>124</v>
       </c>
@@ -7244,7 +8895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>126</v>
       </c>
@@ -7255,7 +8906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>337</v>
       </c>
@@ -7263,7 +8914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>338</v>
       </c>
@@ -7271,7 +8922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>339</v>
       </c>
@@ -7279,7 +8930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>7</v>
       </c>
@@ -7287,7 +8938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>8</v>
       </c>
@@ -7295,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>9</v>
       </c>
@@ -7303,7 +8954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>344</v>
       </c>
@@ -7311,7 +8962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>210</v>
       </c>
@@ -7319,7 +8970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>10</v>
       </c>
@@ -7327,7 +8978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -7335,7 +8986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>345</v>
       </c>
@@ -7349,22 +9000,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -7372,7 +9023,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7382,7 +9033,7 @@
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7392,7 +9043,7 @@
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -7402,7 +9053,7 @@
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7412,7 +9063,7 @@
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7422,7 +9073,7 @@
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7432,7 +9083,7 @@
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7442,7 +9093,7 @@
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7452,7 +9103,7 @@
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -7462,7 +9113,7 @@
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -7472,7 +9123,7 @@
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -7482,7 +9133,7 @@
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -7492,7 +9143,7 @@
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -7502,7 +9153,7 @@
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -7512,7 +9163,7 @@
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -7522,7 +9173,7 @@
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -7532,7 +9183,7 @@
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -7542,7 +9193,7 @@
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -7552,7 +9203,7 @@
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -7562,7 +9213,7 @@
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -7572,7 +9223,7 @@
       <c r="C23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -7582,7 +9233,7 @@
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -7592,7 +9243,7 @@
       <c r="C25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -7602,7 +9253,7 @@
       <c r="C26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -7612,7 +9263,7 @@
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -7622,7 +9273,7 @@
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -7632,7 +9283,7 @@
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -7642,7 +9293,7 @@
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7652,7 +9303,7 @@
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7662,7 +9313,7 @@
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7672,7 +9323,7 @@
       <c r="C33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7682,7 +9333,7 @@
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7692,7 +9343,7 @@
       <c r="C35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7702,7 +9353,7 @@
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7712,7 +9363,7 @@
       <c r="C37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7722,7 +9373,7 @@
       <c r="C38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -7732,7 +9383,7 @@
       <c r="C39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -7742,7 +9393,7 @@
       <c r="C40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -7752,7 +9403,7 @@
       <c r="C41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -7762,7 +9413,7 @@
       <c r="C42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -7772,7 +9423,7 @@
       <c r="C43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -7782,7 +9433,7 @@
       <c r="C44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -7792,7 +9443,7 @@
       <c r="C45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -7802,7 +9453,7 @@
       <c r="C46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -7812,7 +9463,7 @@
       <c r="C47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -7822,7 +9473,7 @@
       <c r="C48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -7832,7 +9483,7 @@
       <c r="C49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -7842,7 +9493,7 @@
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -7852,7 +9503,7 @@
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -7862,7 +9513,7 @@
       <c r="C52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -7872,7 +9523,7 @@
       <c r="C53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -7882,7 +9533,7 @@
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -7892,7 +9543,7 @@
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -7902,7 +9553,7 @@
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -7912,7 +9563,7 @@
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -7922,7 +9573,7 @@
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -7931,7 +9582,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -7940,7 +9591,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -7949,7 +9600,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -7958,7 +9609,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -7967,7 +9618,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -7976,7 +9627,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -7985,7 +9636,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -7994,7 +9645,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -8003,7 +9654,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -8012,7 +9663,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -8021,7 +9672,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -8030,7 +9681,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -8039,7 +9690,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -8048,7 +9699,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -8057,7 +9708,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -8066,7 +9717,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -8075,7 +9726,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -8084,7 +9735,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -8093,7 +9744,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -8102,7 +9753,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -8111,7 +9762,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -8120,7 +9771,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -8129,7 +9780,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -8138,7 +9789,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -8147,7 +9798,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -8156,7 +9807,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -8165,7 +9816,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -8174,7 +9825,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -8184,7 +9835,7 @@
       <c r="C87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -8194,7 +9845,7 @@
       <c r="C88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -8204,7 +9855,7 @@
       <c r="C89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>87</v>
       </c>
@@ -8214,7 +9865,7 @@
       <c r="C90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>88</v>
       </c>
@@ -8223,7 +9874,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -8232,7 +9883,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -8241,7 +9892,7 @@
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -8250,7 +9901,7 @@
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -8259,7 +9910,7 @@
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -8268,7 +9919,7 @@
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -8277,7 +9928,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -8286,7 +9937,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -8295,7 +9946,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>97</v>
       </c>
@@ -8304,7 +9955,7 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -8313,7 +9964,7 @@
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -8322,7 +9973,7 @@
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>100</v>
       </c>
@@ -8331,7 +9982,7 @@
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -8340,7 +9991,7 @@
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -8349,7 +10000,7 @@
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>103</v>
       </c>
@@ -8358,7 +10009,7 @@
       </c>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -8369,7 +10020,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>105</v>
       </c>
@@ -8381,82 +10032,82 @@
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>106</v>
       </c>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>107</v>
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>108</v>
       </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>109</v>
       </c>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>110</v>
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>111</v>
       </c>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>112</v>
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>113</v>
       </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>114</v>
       </c>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>115</v>
       </c>
       <c r="C118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>116</v>
       </c>
       <c r="C119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>117</v>
       </c>
       <c r="C120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>118</v>
       </c>
@@ -8464,166 +10115,166 @@
       <c r="D121" s="7"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>119</v>
       </c>
       <c r="C122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>120</v>
       </c>
       <c r="C123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>121</v>
       </c>
       <c r="C124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>122</v>
       </c>
       <c r="C125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>123</v>
       </c>
       <c r="C126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>124</v>
       </c>
       <c r="C127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>125</v>
       </c>
       <c r="C128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="C129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="C130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="C131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="C132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="C133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="C134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="C135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="C136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="C137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="C138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="C139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="C140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="C141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="C142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="C143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="C144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="C145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="C146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="C147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
   </sheetData>
